--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC48C3-81E1-4693-A9F1-2D04901C46CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E4934-3BD6-4C35-AFDA-F2022597AC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="165">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,18 +465,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오공, 갤리두스, 엘리시아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>밀2바1키2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오2갤2오1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아1트2스2</t>
   </si>
   <si>
@@ -545,6 +537,162 @@
   </si>
   <si>
     <t>챈2스2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대 길드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 키리엘, 바네사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2프1바1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 쥬리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬2콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1트2제2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카1카2파2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 프레이야, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 겔리두스, 스파이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키2프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬레핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카1구2카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 엘리시아, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 루디, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1프2연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔리두스, 트루드, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리, 엘리스, 플라튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔1트2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리1플2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스, 녹스, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2엘2플2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1녹2크2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2에2에1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔1겔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 콜트, 플라튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜1콜2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2바1프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1밀2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 엘리시아, 겔리두스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 오공, 스파이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔1오2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2오1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M37:M38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,7 +1095,7 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1120,14 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,8 +1152,14 @@
       <c r="H2" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1024,8 +1184,14 @@
       <c r="H3" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1050,8 +1216,14 @@
       <c r="H4" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1248,14 @@
       <c r="H5" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1102,8 +1280,14 @@
       <c r="H6" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1128,8 +1312,14 @@
       <c r="H7" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1154,8 +1344,14 @@
       <c r="H8" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1180,8 +1376,14 @@
       <c r="H9" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1206,8 +1408,14 @@
       <c r="H10" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1232,8 +1440,14 @@
       <c r="H11" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1258,8 +1472,14 @@
       <c r="H12" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1284,8 +1504,14 @@
       <c r="H13" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1310,8 +1536,14 @@
       <c r="H14" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -1336,8 +1568,14 @@
       <c r="H15" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -1362,8 +1600,14 @@
       <c r="H16" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1388,8 +1632,14 @@
       <c r="H17" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1664,14 @@
       <c r="H18" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1440,8 +1696,14 @@
       <c r="H19" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -1466,8 +1728,14 @@
       <c r="H20" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1492,8 +1760,14 @@
       <c r="H21" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -1518,8 +1792,14 @@
       <c r="H22" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1544,8 +1824,14 @@
       <c r="H23" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1570,8 +1856,14 @@
       <c r="H24" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1596,8 +1888,14 @@
       <c r="H25" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -1622,8 +1920,14 @@
       <c r="H26" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1648,8 +1952,14 @@
       <c r="H27" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1674,8 +1984,14 @@
       <c r="H28" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -1700,8 +2016,14 @@
       <c r="H29" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1726,8 +2048,14 @@
       <c r="H30" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1752,8 +2080,14 @@
       <c r="H31" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
@@ -1778,8 +2112,14 @@
       <c r="H32" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1804,8 +2144,14 @@
       <c r="H33" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -1813,16 +2159,16 @@
         <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>12</v>
@@ -1830,8 +2176,14 @@
       <c r="H34" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1839,7 +2191,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>18</v>
@@ -1856,8 +2208,14 @@
       <c r="H35" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +2232,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -1882,19 +2240,25 @@
       <c r="H36" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
@@ -1908,25 +2272,31 @@
       <c r="H37" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>17</v>
@@ -1934,8 +2304,14 @@
       <c r="H38" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1943,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
@@ -1952,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>17</v>
@@ -1960,8 +2336,14 @@
       <c r="H39" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -1972,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>12</v>
@@ -1986,16 +2368,22 @@
       <c r="H40" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -2012,8 +2400,14 @@
       <c r="H41" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2038,8 +2432,14 @@
       <c r="H42" s="1">
         <v>260105</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -2047,22 +2447,668 @@
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="1">
         <v>260105</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E4934-3BD6-4C35-AFDA-F2022597AC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C914A-4D16-4A8D-B2E2-3EDF2B14A1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="224">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,241 @@
   </si>
   <si>
     <t>수비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스, 로지, 녹스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1크2녹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 바네사, 연희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2바1연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔리두스, 엘리시아, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2트2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 카구라, 델론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 바네사, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 아멜리아, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘2엘1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2트2트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 밀리아, 바네사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카1파1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1겔2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2프2바1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구1카1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 멜키르, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 쥬리, 바네사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1쥬2프2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2프2멜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 엘리시아, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 멜키르, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜2프2밀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2엘1오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 연희, 멜키르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 스파이크, 오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜1멜2연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2트2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1로1녹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1실2실1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이스, 콜트, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파1콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1프2프1</t>
+  </si>
+  <si>
+    <t>오2겔2겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2멜2프2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 스파이크, 플라튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 스파이크, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2플2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2오1스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 바네사, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2파2카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1키2연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2아1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 니아, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1연2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니2연2니1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 바네사, 쥬리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1쥬2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 엘리시아, 카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1카1구2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 바네사, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이크, 엘리스, 리나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2엘1겔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1스2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3111,6 +3346,966 @@
         <v>164</v>
       </c>
     </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="1">
+        <v>260106</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="1">
+        <v>260108</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="1">
+        <v>260109</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="1">
+        <v>260111</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="1">
+        <v>260113</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="1">
+        <v>260114</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="1">
+        <v>260115</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="1">
+        <v>260116</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="1">
+        <v>260117</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="1">
+        <v>260118</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="1">
+        <v>260119</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="1">
+        <v>260120</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="1">
+        <v>260121</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="1">
+        <v>260122</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="1">
+        <v>260123</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="1">
+        <v>260124</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="1">
+        <v>260125</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="1">
+        <v>260126</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="1">
+        <v>260127</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="1">
+        <v>260128</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="1">
+        <v>260129</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="1">
+        <v>260130</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="1">
+        <v>260132</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="1">
+        <v>260133</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C914A-4D16-4A8D-B2E2-3EDF2B14A1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BB7BD-1DA0-4648-AC3C-974B3FFFC142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3433,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="H66" s="1">
-        <v>260106</v>
+        <v>260105</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>127</v>
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="H67" s="1">
-        <v>260107</v>
+        <v>260105</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>127</v>
@@ -3497,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="H68" s="1">
-        <v>260108</v>
+        <v>260105</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>127</v>
@@ -3529,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="H69" s="1">
-        <v>260109</v>
+        <v>260105</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>127</v>
@@ -3561,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="H70" s="1">
-        <v>260110</v>
+        <v>260105</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>127</v>
@@ -3593,7 +3593,7 @@
         <v>12</v>
       </c>
       <c r="H71" s="1">
-        <v>260111</v>
+        <v>260105</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>127</v>
@@ -3625,7 +3625,7 @@
         <v>12</v>
       </c>
       <c r="H72" s="1">
-        <v>260112</v>
+        <v>260105</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>127</v>
@@ -3657,7 +3657,7 @@
         <v>17</v>
       </c>
       <c r="H73" s="1">
-        <v>260113</v>
+        <v>260105</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>127</v>
@@ -3689,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="H74" s="1">
-        <v>260114</v>
+        <v>260105</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>127</v>
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="H75" s="1">
-        <v>260115</v>
+        <v>260105</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>127</v>
@@ -3753,7 +3753,7 @@
         <v>12</v>
       </c>
       <c r="H76" s="1">
-        <v>260116</v>
+        <v>260105</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>127</v>
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="H77" s="1">
-        <v>260117</v>
+        <v>260105</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>127</v>
@@ -3817,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="H78" s="1">
-        <v>260118</v>
+        <v>260105</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>127</v>
@@ -3849,7 +3849,7 @@
         <v>17</v>
       </c>
       <c r="H79" s="1">
-        <v>260119</v>
+        <v>260105</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>127</v>
@@ -3881,7 +3881,7 @@
         <v>17</v>
       </c>
       <c r="H80" s="1">
-        <v>260120</v>
+        <v>260105</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>127</v>
@@ -3913,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="H81" s="1">
-        <v>260121</v>
+        <v>260105</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>127</v>
@@ -3945,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="H82" s="1">
-        <v>260122</v>
+        <v>260105</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>127</v>
@@ -3977,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="H83" s="1">
-        <v>260123</v>
+        <v>260105</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>127</v>
@@ -4009,7 +4009,7 @@
         <v>17</v>
       </c>
       <c r="H84" s="1">
-        <v>260124</v>
+        <v>260105</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>127</v>
@@ -4041,7 +4041,7 @@
         <v>17</v>
       </c>
       <c r="H85" s="1">
-        <v>260125</v>
+        <v>260105</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>127</v>
@@ -4073,7 +4073,7 @@
         <v>17</v>
       </c>
       <c r="H86" s="1">
-        <v>260126</v>
+        <v>260105</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>127</v>
@@ -4105,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="H87" s="1">
-        <v>260127</v>
+        <v>260105</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>127</v>
@@ -4137,7 +4137,7 @@
         <v>12</v>
       </c>
       <c r="H88" s="1">
-        <v>260128</v>
+        <v>260105</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>127</v>
@@ -4169,7 +4169,7 @@
         <v>17</v>
       </c>
       <c r="H89" s="1">
-        <v>260129</v>
+        <v>260105</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>127</v>
@@ -4201,7 +4201,7 @@
         <v>17</v>
       </c>
       <c r="H90" s="1">
-        <v>260130</v>
+        <v>260105</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>127</v>
@@ -4233,7 +4233,7 @@
         <v>17</v>
       </c>
       <c r="H91" s="1">
-        <v>260131</v>
+        <v>260105</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>127</v>
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="H92" s="1">
-        <v>260132</v>
+        <v>260105</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>127</v>
@@ -4297,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="H93" s="1">
-        <v>260133</v>
+        <v>260105</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>127</v>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BB7BD-1DA0-4648-AC3C-974B3FFFC142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D39889-8B8F-4863-8F45-DBB0CE647830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="269">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -928,6 +928,186 @@
   </si>
   <si>
     <t>엘1스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 엘리시아, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파1트2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔1오2겔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2트2제1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2크2로1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바네사, 연희, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1연2바2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 카구라, 스파이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2파1카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2스2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키리엘, 밀리아, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2오2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔1엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2스2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 프레이야, 멜키르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1트2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 엘리시아, 오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘2플2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스, 아킬라, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2크1로1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 콜트, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔1오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 스파이크, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2오2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2스2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 바네사, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1바2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘2오2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2트2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실베스타, 쥬리, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파2카1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬2실1실2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스, 녹스, 아킬라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2아1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 아멜리아, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 오공, 겔리두스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1오2겔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 멜키르, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜1프2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔1오2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 프레이야, 쥬리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬2프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1오2스2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4306,6 +4486,1030 @@
         <v>167</v>
       </c>
     </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="1">
+        <v>260105</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D39889-8B8F-4863-8F45-DBB0CE647830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C5AA47-F555-4736-8353-0EE2C3B0071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="331">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,6 +1108,254 @@
   </si>
   <si>
     <t>아1오2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 리나, 헬레니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리2오2헬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2엘1겔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느그클럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2트2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 바네사, 쥬리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1쥬2연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1엘2플1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 아멜리아, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 챈슬러, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 스파이크, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2구2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2트2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플1플2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 리나, 카론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2로1아1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 엘리시아, 카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1트2카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2파2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1연2연1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔1오2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2콜2콜1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 실베스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2콜2실1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카1카2파1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2엘2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카1아2카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2루2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루디, 오공, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카론, 리, 스파이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리2스2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2바1키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 데이지, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2프1엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 스파이크, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 엘리스, 플라튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 엘리시아, 오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2트2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 루디, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2플2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 키리엘, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2프1키1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2카2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 바네사, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 트루드, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 트루드, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2트2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 트루드, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 오공, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파1카2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 쥬리, 실베스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 겔리두스, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2실1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2트1트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="P193" sqref="P193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5510,6 +5758,1670 @@
         <v>167</v>
       </c>
     </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C5AA47-F555-4736-8353-0EE2C3B0071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084C3F3E-DCA4-4452-9FBB-A9D35B0DFCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="392">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,6 +1356,250 @@
   </si>
   <si>
     <t>아2트1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 엘리시아, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1실2플2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1카1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 바네사, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2연2연1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1트2트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔리두스, 스파이크, 챈슬러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 엘리스, 라니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2라2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챈2챈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카르마, 챈슬러, 크리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 실베스타, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키2실2실1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1연1연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 스파이크, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2쥬2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 에이스, 아라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2아2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1카1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1트2구2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 카구라, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 로지, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 스파이크, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스2플2스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키2연2연1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 발리스타, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜1콜2발2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1프2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키2콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이크, 엘리스, 아라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2트2아1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2바1프2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜트, 엘리시아, 델론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜2엘2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 쥬리, 멜키르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 오공, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2멜2쥬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2프1오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2실2실1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 바네사, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1프2바2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 크리스, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔리두스, 스파이크, 크리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1엘2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2스2크2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 키리엘, 쥬리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 엘리시아, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이크, 엘리스, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1트2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 연희, 린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2연2밀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 트루드, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜1콜2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 키리엘, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연2콜2키2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1743,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="P193" sqref="P193"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="O199" sqref="O199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7422,6 +7666,966 @@
         <v>271</v>
       </c>
     </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H186" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H189" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H197" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H199" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" s="1">
+        <v>260103</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4CA50D-65C4-42C5-83D5-A2D196372739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F524E120-F48C-41BE-8680-D3A62C5F5026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="485">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
   <dimension ref="A1:J314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D314" sqref="D314"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="N310" sqref="N310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10908,6 +10908,15 @@
       <c r="G267" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H267" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -10931,6 +10940,15 @@
       <c r="G268" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H268" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
@@ -10954,6 +10972,15 @@
       <c r="G269" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H269" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
@@ -10977,6 +11004,15 @@
       <c r="G270" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H270" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
@@ -11000,6 +11036,15 @@
       <c r="G271" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H271" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
@@ -11023,8 +11068,17 @@
       <c r="G272" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>63</v>
       </c>
@@ -11046,8 +11100,17 @@
       <c r="G273" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>18</v>
       </c>
@@ -11069,8 +11132,17 @@
       <c r="G274" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>18</v>
       </c>
@@ -11092,8 +11164,17 @@
       <c r="G275" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>45</v>
       </c>
@@ -11115,8 +11196,17 @@
       <c r="G276" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>18</v>
       </c>
@@ -11138,8 +11228,17 @@
       <c r="G277" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>18</v>
       </c>
@@ -11161,8 +11260,17 @@
       <c r="G278" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>31</v>
       </c>
@@ -11184,8 +11292,17 @@
       <c r="G279" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>36</v>
       </c>
@@ -11207,8 +11324,17 @@
       <c r="G280" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>31</v>
       </c>
@@ -11230,8 +11356,17 @@
       <c r="G281" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>87</v>
       </c>
@@ -11253,8 +11388,17 @@
       <c r="G282" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>18</v>
       </c>
@@ -11276,8 +11420,17 @@
       <c r="G283" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>14</v>
       </c>
@@ -11299,8 +11452,17 @@
       <c r="G284" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>99</v>
       </c>
@@ -11322,8 +11484,17 @@
       <c r="G285" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>140</v>
       </c>
@@ -11345,8 +11516,17 @@
       <c r="G286" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>18</v>
       </c>
@@ -11368,8 +11548,17 @@
       <c r="G287" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>450</v>
       </c>
@@ -11391,8 +11580,17 @@
       <c r="G288" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>14</v>
       </c>
@@ -11414,8 +11612,17 @@
       <c r="G289" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>18</v>
       </c>
@@ -11437,8 +11644,17 @@
       <c r="G290" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>41</v>
       </c>
@@ -11460,8 +11676,17 @@
       <c r="G291" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>18</v>
       </c>
@@ -11483,8 +11708,17 @@
       <c r="G292" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>113</v>
       </c>
@@ -11506,8 +11740,17 @@
       <c r="G293" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>74</v>
       </c>
@@ -11529,8 +11772,17 @@
       <c r="G294" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>18</v>
       </c>
@@ -11552,8 +11804,17 @@
       <c r="G295" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>14</v>
       </c>
@@ -11575,8 +11836,17 @@
       <c r="G296" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>14</v>
       </c>
@@ -11598,8 +11868,17 @@
       <c r="G297" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>14</v>
       </c>
@@ -11621,8 +11900,17 @@
       <c r="G298" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>41</v>
       </c>
@@ -11644,8 +11932,17 @@
       <c r="G299" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>113</v>
       </c>
@@ -11667,8 +11964,17 @@
       <c r="G300" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>18</v>
       </c>
@@ -11690,8 +11996,17 @@
       <c r="G301" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>36</v>
       </c>
@@ -11713,8 +12028,17 @@
       <c r="G302" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H302" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>31</v>
       </c>
@@ -11736,8 +12060,17 @@
       <c r="G303" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H303" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>193</v>
       </c>
@@ -11759,8 +12092,17 @@
       <c r="G304" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H304" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>56</v>
       </c>
@@ -11782,8 +12124,17 @@
       <c r="G305" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H305" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>209</v>
       </c>
@@ -11805,8 +12156,17 @@
       <c r="G306" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H306" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>18</v>
       </c>
@@ -11828,8 +12188,17 @@
       <c r="G307" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H307" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>31</v>
       </c>
@@ -11851,8 +12220,17 @@
       <c r="G308" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>475</v>
       </c>
@@ -11874,8 +12252,17 @@
       <c r="G309" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H309" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>18</v>
       </c>
@@ -11897,8 +12284,17 @@
       <c r="G310" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H310" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>86</v>
       </c>
@@ -11920,8 +12316,17 @@
       <c r="G311" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H311" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>18</v>
       </c>
@@ -11943,8 +12348,17 @@
       <c r="G312" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H312" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>209</v>
       </c>
@@ -11966,8 +12380,17 @@
       <c r="G313" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H313" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>482</v>
       </c>
@@ -11988,6 +12411,15 @@
       </c>
       <c r="G314" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="H314" s="1">
+        <v>260107</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F524E120-F48C-41BE-8680-D3A62C5F5026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B466178-B060-48F9-B989-621C4BD003F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="520">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1972,6 +1972,146 @@
   </si>
   <si>
     <t>엘리시아2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세브니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1오2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 겔리두스, 오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1녹2녹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜1멜2쥬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1크2로1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔1오2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 프레이야, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연2프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 겔리두스, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니2연2연1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2프2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2아2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바2프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 카구라, 쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2오1겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 아멜리아, 풍연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 오공, 에이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2오2에2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 프레이야, 에이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1로1크2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 콜트, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 쥬리, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1연2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔2스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 풍연, 아킬라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2아2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2카2구2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 아멜리아, 쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2오2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 오를리, 바네사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 엘리시아, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜1콜2엘2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2359,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J314"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="N310" sqref="N310"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="N352" sqref="N352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12422,6 +12562,1382 @@
         <v>167</v>
       </c>
     </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H315" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H316" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H317" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H318" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H319" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H320" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H321" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H322" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H323" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H324" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H325" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H326" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H328" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H329" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H330" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H331" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H332" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H333" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H335" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H339" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H341" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H342" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H343" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H344" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H345" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H346" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H347" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H348" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H349" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H350" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H351" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H352" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H353" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H354" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H355" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H356" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H357" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B466178-B060-48F9-B989-621C4BD003F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122E0E0-2577-4CD7-99BD-39BFD5B81C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -2031,10 +2031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카일, 카구라, 쁘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>겔2오1겔1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2095,10 +2091,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카일, 아멜리아, 쁘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프2오2엘2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2112,6 +2104,14 @@
   </si>
   <si>
     <t>콜1콜2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 아멜리아, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 카구라, 브브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2502,7 +2502,7 @@
   <dimension ref="A1:J357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="N352" sqref="N352"/>
+      <selection activeCell="O346" sqref="O346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13146,10 +13146,10 @@
         <v>8</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>19</v>
@@ -13181,7 +13181,7 @@
         <v>202</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>19</v>
@@ -13204,13 +13204,13 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>421</v>
@@ -13300,7 +13300,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>8</v>
@@ -13443,7 +13443,7 @@
         <v>49</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>17</v>
@@ -13466,10 +13466,10 @@
         <v>9</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>33</v>
@@ -13492,13 +13492,13 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>492</v>
@@ -13530,7 +13530,7 @@
         <v>9</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>63</v>
@@ -13565,7 +13565,7 @@
         <v>23</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>19</v>
@@ -13635,7 +13635,7 @@
         <v>46</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>17</v>
@@ -13725,13 +13725,13 @@
         <v>152</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>17</v>
@@ -13748,13 +13748,13 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>144</v>
@@ -13789,7 +13789,7 @@
         <v>116</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>19</v>
@@ -13818,7 +13818,7 @@
         <v>46</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>45</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>52</v>
@@ -13917,13 +13917,13 @@
         <v>47</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>12</v>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122E0E0-2577-4CD7-99BD-39BFD5B81C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56594BD1-6C18-49C9-A697-9BC46CC202A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="523">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2112,6 +2112,18 @@
   </si>
   <si>
     <t>카일, 카구라, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2엘1엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린2멜2멜1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린, 밀리아, 멜키르</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2499,13 +2511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J357"/>
+  <dimension ref="A1:J359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="O346" sqref="O346"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
@@ -2514,7 +2526,7 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -2578,7 +2590,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -2642,7 +2654,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2674,7 +2686,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2802,7 +2814,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2866,7 +2878,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2898,7 +2910,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +2942,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,7 +2974,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3026,7 +3038,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3090,7 +3102,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3122,7 +3134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
@@ -3154,7 +3166,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -3250,7 +3262,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -3282,7 +3294,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3314,7 +3326,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -3346,7 +3358,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3378,7 +3390,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -3410,7 +3422,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3442,7 +3454,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -3474,7 +3486,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
         <v>308</v>
       </c>
@@ -3538,7 +3550,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -3570,7 +3582,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -3602,7 +3614,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -3634,7 +3646,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -3666,7 +3678,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3698,7 +3710,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -3730,7 +3742,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3794,7 +3806,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -3890,7 +3902,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A45" s="1" t="s">
         <v>323</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -3986,7 +3998,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -4050,7 +4062,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -4082,7 +4094,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -4114,7 +4126,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
         <v>327</v>
       </c>
@@ -4146,7 +4158,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A52" s="1" t="s">
         <v>294</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4210,7 +4222,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -4274,7 +4286,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -4306,7 +4318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A57" s="1" t="s">
         <v>294</v>
       </c>
@@ -4338,7 +4350,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
@@ -4370,7 +4382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -4402,7 +4414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A60" s="1" t="s">
         <v>338</v>
       </c>
@@ -4434,7 +4446,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A61" s="1" t="s">
         <v>342</v>
       </c>
@@ -4466,7 +4478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
@@ -4498,7 +4510,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A63" s="1" t="s">
         <v>319</v>
       </c>
@@ -4530,7 +4542,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A64" s="1" t="s">
         <v>216</v>
       </c>
@@ -4562,7 +4574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
@@ -4594,7 +4606,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A66" s="1" t="s">
         <v>350</v>
       </c>
@@ -4626,7 +4638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A68" s="1" t="s">
         <v>355</v>
       </c>
@@ -4690,7 +4702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A69" s="1" t="s">
         <v>356</v>
       </c>
@@ -4722,7 +4734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A71" s="1" t="s">
         <v>363</v>
       </c>
@@ -4786,7 +4798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A72" s="1" t="s">
         <v>319</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -4850,7 +4862,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A74" s="1" t="s">
         <v>369</v>
       </c>
@@ -4882,7 +4894,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A75" s="1" t="s">
         <v>371</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A76" s="1" t="s">
         <v>110</v>
       </c>
@@ -4946,7 +4958,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A77" s="1" t="s">
         <v>376</v>
       </c>
@@ -4978,7 +4990,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -5010,7 +5022,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A79" s="1" t="s">
         <v>382</v>
       </c>
@@ -5042,7 +5054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A80" s="1" t="s">
         <v>383</v>
       </c>
@@ -5074,7 +5086,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A81" s="1" t="s">
         <v>386</v>
       </c>
@@ -5106,7 +5118,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A82" s="1" t="s">
         <v>319</v>
       </c>
@@ -5138,7 +5150,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A83" s="1" t="s">
         <v>390</v>
       </c>
@@ -5170,7 +5182,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -5234,7 +5246,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -5266,7 +5278,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
@@ -5298,7 +5310,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A88" s="1" t="s">
         <v>27</v>
       </c>
@@ -5330,7 +5342,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -5362,7 +5374,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -5394,7 +5406,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A91" s="1" t="s">
         <v>41</v>
       </c>
@@ -5426,7 +5438,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A92" s="1" t="s">
         <v>45</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -5490,7 +5502,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A94" s="1" t="s">
         <v>36</v>
       </c>
@@ -5522,7 +5534,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A95" s="1" t="s">
         <v>56</v>
       </c>
@@ -5554,7 +5566,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -5586,7 +5598,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A97" s="1" t="s">
         <v>60</v>
       </c>
@@ -5618,7 +5630,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A98" s="1" t="s">
         <v>63</v>
       </c>
@@ -5650,7 +5662,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A99" s="1" t="s">
         <v>67</v>
       </c>
@@ -5682,7 +5694,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
@@ -5714,7 +5726,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
@@ -5746,7 +5758,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A102" s="1" t="s">
         <v>74</v>
       </c>
@@ -5778,7 +5790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -5810,7 +5822,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A104" s="1" t="s">
         <v>78</v>
       </c>
@@ -5842,7 +5854,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
@@ -5874,7 +5886,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
@@ -5906,7 +5918,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
@@ -5938,7 +5950,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A108" s="1" t="s">
         <v>86</v>
       </c>
@@ -5970,7 +5982,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -6002,7 +6014,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A110" s="1" t="s">
         <v>63</v>
       </c>
@@ -6034,7 +6046,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A111" s="1" t="s">
         <v>94</v>
       </c>
@@ -6066,7 +6078,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A112" s="1" t="s">
         <v>74</v>
       </c>
@@ -6098,7 +6110,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A113" s="1" t="s">
         <v>31</v>
       </c>
@@ -6130,7 +6142,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A114" s="1" t="s">
         <v>100</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A115" s="1" t="s">
         <v>18</v>
       </c>
@@ -6194,7 +6206,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A116" s="1" t="s">
         <v>106</v>
       </c>
@@ -6226,7 +6238,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A117" s="1" t="s">
         <v>31</v>
       </c>
@@ -6258,7 +6270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A118" s="1" t="s">
         <v>18</v>
       </c>
@@ -6290,7 +6302,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A119" s="1" t="s">
         <v>110</v>
       </c>
@@ -6322,7 +6334,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A120" s="1" t="s">
         <v>113</v>
       </c>
@@ -6354,7 +6366,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A121" s="1" t="s">
         <v>31</v>
       </c>
@@ -6386,7 +6398,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
@@ -6418,7 +6430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -6450,7 +6462,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A124" s="1" t="s">
         <v>18</v>
       </c>
@@ -6482,7 +6494,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A125" s="1" t="s">
         <v>31</v>
       </c>
@@ -6514,7 +6526,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -6546,7 +6558,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A127" s="1" t="s">
         <v>31</v>
       </c>
@@ -6578,7 +6590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -6610,7 +6622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -6642,7 +6654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -6674,7 +6686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A131" s="1" t="s">
         <v>41</v>
       </c>
@@ -6706,7 +6718,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
@@ -6738,7 +6750,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -6770,7 +6782,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A134" s="1" t="s">
         <v>77</v>
       </c>
@@ -6802,7 +6814,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
@@ -6834,7 +6846,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A136" s="1" t="s">
         <v>100</v>
       </c>
@@ -6866,7 +6878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -6898,7 +6910,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -6930,7 +6942,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A139" s="1" t="s">
         <v>94</v>
       </c>
@@ -6962,7 +6974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -6994,7 +7006,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A141" s="1" t="s">
         <v>14</v>
       </c>
@@ -7026,7 +7038,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A142" s="1" t="s">
         <v>14</v>
       </c>
@@ -7058,7 +7070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A143" s="1" t="s">
         <v>106</v>
       </c>
@@ -7090,7 +7102,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
@@ -7122,7 +7134,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -7154,7 +7166,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A146" s="1" t="s">
         <v>113</v>
       </c>
@@ -7186,7 +7198,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A147" s="1" t="s">
         <v>168</v>
       </c>
@@ -7218,7 +7230,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
@@ -7250,7 +7262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A149" s="1" t="s">
         <v>172</v>
       </c>
@@ -7282,7 +7294,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A150" s="1" t="s">
         <v>174</v>
       </c>
@@ -7314,7 +7326,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
@@ -7346,7 +7358,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A152" s="1" t="s">
         <v>18</v>
       </c>
@@ -7378,7 +7390,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
@@ -7410,7 +7422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A154" s="1" t="s">
         <v>178</v>
       </c>
@@ -7442,7 +7454,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A155" s="1" t="s">
         <v>86</v>
       </c>
@@ -7474,7 +7486,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
@@ -7506,7 +7518,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A157" s="1" t="s">
         <v>183</v>
       </c>
@@ -7538,7 +7550,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A158" s="1" t="s">
         <v>188</v>
       </c>
@@ -7570,7 +7582,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A159" s="1" t="s">
         <v>191</v>
       </c>
@@ -7602,7 +7614,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A160" s="1" t="s">
         <v>193</v>
       </c>
@@ -7634,7 +7646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A161" s="1" t="s">
         <v>110</v>
       </c>
@@ -7666,7 +7678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A162" s="1" t="s">
         <v>199</v>
       </c>
@@ -7698,7 +7710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A163" s="1" t="s">
         <v>14</v>
       </c>
@@ -7730,7 +7742,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A164" s="1" t="s">
         <v>14</v>
       </c>
@@ -7762,7 +7774,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A165" s="1" t="s">
         <v>188</v>
       </c>
@@ -7794,7 +7806,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -7826,7 +7838,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A167" s="1" t="s">
         <v>206</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A168" s="1" t="s">
         <v>209</v>
       </c>
@@ -7890,7 +7902,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A169" s="1" t="s">
         <v>14</v>
       </c>
@@ -7922,7 +7934,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -7954,7 +7966,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A171" s="1" t="s">
         <v>209</v>
       </c>
@@ -7986,7 +7998,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A172" s="1" t="s">
         <v>18</v>
       </c>
@@ -8018,7 +8030,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
@@ -8050,7 +8062,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A174" s="1" t="s">
         <v>183</v>
       </c>
@@ -8082,7 +8094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A175" s="1" t="s">
         <v>36</v>
       </c>
@@ -8114,7 +8126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A176" s="1" t="s">
         <v>224</v>
       </c>
@@ -8146,7 +8158,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A177" s="1" t="s">
         <v>18</v>
       </c>
@@ -8178,7 +8190,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A178" s="1" t="s">
         <v>31</v>
       </c>
@@ -8210,7 +8222,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A179" s="1" t="s">
         <v>113</v>
       </c>
@@ -8242,7 +8254,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A180" s="1" t="s">
         <v>18</v>
       </c>
@@ -8274,7 +8286,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
@@ -8306,7 +8318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A182" s="1" t="s">
         <v>18</v>
       </c>
@@ -8338,7 +8350,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A183" s="1" t="s">
         <v>41</v>
       </c>
@@ -8370,7 +8382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
@@ -8402,7 +8414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
@@ -8434,7 +8446,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A186" s="1" t="s">
         <v>113</v>
       </c>
@@ -8466,7 +8478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A187" s="1" t="s">
         <v>153</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A188" s="1" t="s">
         <v>244</v>
       </c>
@@ -8530,7 +8542,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A189" s="1" t="s">
         <v>246</v>
       </c>
@@ -8562,7 +8574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A190" s="1" t="s">
         <v>18</v>
       </c>
@@ -8594,7 +8606,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A191" s="1" t="s">
         <v>18</v>
       </c>
@@ -8626,7 +8638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A192" s="1" t="s">
         <v>31</v>
       </c>
@@ -8658,7 +8670,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A193" s="1" t="s">
         <v>18</v>
       </c>
@@ -8690,7 +8702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A194" s="1" t="s">
         <v>18</v>
       </c>
@@ -8722,7 +8734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A195" s="1" t="s">
         <v>31</v>
       </c>
@@ -8754,7 +8766,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A196" s="1" t="s">
         <v>113</v>
       </c>
@@ -8786,7 +8798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A197" s="1" t="s">
         <v>31</v>
       </c>
@@ -8818,7 +8830,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A198" s="1" t="s">
         <v>259</v>
       </c>
@@ -8850,7 +8862,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A199" s="1" t="s">
         <v>18</v>
       </c>
@@ -8882,7 +8894,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A200" s="1" t="s">
         <v>31</v>
       </c>
@@ -8914,7 +8926,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A201" s="1" t="s">
         <v>18</v>
       </c>
@@ -8946,7 +8958,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
@@ -9010,7 +9022,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A204" s="1" t="s">
         <v>18</v>
       </c>
@@ -9042,7 +9054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A205" s="1" t="s">
         <v>238</v>
       </c>
@@ -9074,7 +9086,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A206" s="1" t="s">
         <v>18</v>
       </c>
@@ -9106,7 +9118,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A207" s="1" t="s">
         <v>18</v>
       </c>
@@ -9138,7 +9150,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A208" s="1" t="s">
         <v>41</v>
       </c>
@@ -9170,7 +9182,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A209" s="1" t="s">
         <v>173</v>
       </c>
@@ -9202,7 +9214,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A210" s="1" t="s">
         <v>173</v>
       </c>
@@ -9234,7 +9246,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A211" s="1" t="s">
         <v>173</v>
       </c>
@@ -9266,7 +9278,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A212" s="1" t="s">
         <v>31</v>
       </c>
@@ -9298,7 +9310,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A213" s="1" t="s">
         <v>74</v>
       </c>
@@ -9330,7 +9342,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A214" s="1" t="s">
         <v>18</v>
       </c>
@@ -9362,7 +9374,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A215" s="1" t="s">
         <v>31</v>
       </c>
@@ -9394,7 +9406,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A216" s="1" t="s">
         <v>86</v>
       </c>
@@ -9426,7 +9438,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A217" s="1" t="s">
         <v>18</v>
       </c>
@@ -9458,7 +9470,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A218" s="1" t="s">
         <v>31</v>
       </c>
@@ -9490,7 +9502,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A219" s="1" t="s">
         <v>18</v>
       </c>
@@ -9522,7 +9534,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A220" s="1" t="s">
         <v>14</v>
       </c>
@@ -9554,7 +9566,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A221" s="1" t="s">
         <v>67</v>
       </c>
@@ -9586,7 +9598,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9618,7 +9630,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A223" s="1" t="s">
         <v>14</v>
       </c>
@@ -9650,7 +9662,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A224" s="1" t="s">
         <v>31</v>
       </c>
@@ -9682,7 +9694,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A225" s="1" t="s">
         <v>18</v>
       </c>
@@ -9714,7 +9726,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A226" s="1" t="s">
         <v>18</v>
       </c>
@@ -9746,7 +9758,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A227" s="1" t="s">
         <v>18</v>
       </c>
@@ -9778,7 +9790,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A228" s="1" t="s">
         <v>399</v>
       </c>
@@ -9810,7 +9822,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A229" s="1" t="s">
         <v>18</v>
       </c>
@@ -9842,7 +9854,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A230" s="1" t="s">
         <v>14</v>
       </c>
@@ -9874,7 +9886,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A231" s="1" t="s">
         <v>18</v>
       </c>
@@ -9906,7 +9918,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A232" s="1" t="s">
         <v>403</v>
       </c>
@@ -9938,7 +9950,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A233" s="1" t="s">
         <v>41</v>
       </c>
@@ -9970,7 +9982,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A234" s="1" t="s">
         <v>63</v>
       </c>
@@ -10002,7 +10014,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A235" s="1" t="s">
         <v>31</v>
       </c>
@@ -10034,7 +10046,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A236" s="1" t="s">
         <v>173</v>
       </c>
@@ -10066,7 +10078,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A237" s="1" t="s">
         <v>106</v>
       </c>
@@ -10098,7 +10110,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A238" s="1" t="s">
         <v>77</v>
       </c>
@@ -10130,7 +10142,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A239" s="1" t="s">
         <v>140</v>
       </c>
@@ -10162,7 +10174,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A240" s="1" t="s">
         <v>140</v>
       </c>
@@ -10194,7 +10206,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A241" s="1" t="s">
         <v>18</v>
       </c>
@@ -10226,7 +10238,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A242" s="1" t="s">
         <v>18</v>
       </c>
@@ -10258,7 +10270,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A243" s="1" t="s">
         <v>14</v>
       </c>
@@ -10290,7 +10302,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A244" s="1" t="s">
         <v>14</v>
       </c>
@@ -10322,7 +10334,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A245" s="1" t="s">
         <v>31</v>
       </c>
@@ -10354,7 +10366,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A246" s="1" t="s">
         <v>41</v>
       </c>
@@ -10386,7 +10398,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A247" s="1" t="s">
         <v>18</v>
       </c>
@@ -10418,7 +10430,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A248" s="1" t="s">
         <v>86</v>
       </c>
@@ -10450,7 +10462,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A249" s="1" t="s">
         <v>18</v>
       </c>
@@ -10482,7 +10494,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A250" s="1" t="s">
         <v>428</v>
       </c>
@@ -10514,7 +10526,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A251" s="1" t="s">
         <v>41</v>
       </c>
@@ -10546,7 +10558,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A252" s="1" t="s">
         <v>14</v>
       </c>
@@ -10578,7 +10590,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A253" s="1" t="s">
         <v>18</v>
       </c>
@@ -10610,7 +10622,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A254" s="1" t="s">
         <v>18</v>
       </c>
@@ -10642,7 +10654,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A255" s="1" t="s">
         <v>63</v>
       </c>
@@ -10674,7 +10686,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A256" s="1" t="s">
         <v>14</v>
       </c>
@@ -10706,7 +10718,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A257" s="1" t="s">
         <v>440</v>
       </c>
@@ -10738,7 +10750,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A258" s="1" t="s">
         <v>36</v>
       </c>
@@ -10770,7 +10782,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A259" s="1" t="s">
         <v>18</v>
       </c>
@@ -10802,7 +10814,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A260" s="1" t="s">
         <v>323</v>
       </c>
@@ -10834,7 +10846,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A261" s="1" t="s">
         <v>77</v>
       </c>
@@ -10866,7 +10878,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A262" s="1" t="s">
         <v>18</v>
       </c>
@@ -10898,7 +10910,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A263" s="1" t="s">
         <v>14</v>
       </c>
@@ -10930,7 +10942,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A264" s="1" t="s">
         <v>31</v>
       </c>
@@ -10962,7 +10974,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A265" s="1" t="s">
         <v>45</v>
       </c>
@@ -10994,7 +11006,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A266" s="1" t="s">
         <v>18</v>
       </c>
@@ -11026,7 +11038,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A267" s="1" t="s">
         <v>63</v>
       </c>
@@ -11058,7 +11070,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A268" s="1" t="s">
         <v>447</v>
       </c>
@@ -11090,7 +11102,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A269" s="1" t="s">
         <v>159</v>
       </c>
@@ -11122,7 +11134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A270" s="1" t="s">
         <v>450</v>
       </c>
@@ -11154,7 +11166,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A271" s="1" t="s">
         <v>31</v>
       </c>
@@ -11186,7 +11198,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A272" s="1" t="s">
         <v>18</v>
       </c>
@@ -11218,7 +11230,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A273" s="1" t="s">
         <v>63</v>
       </c>
@@ -11250,7 +11262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A274" s="1" t="s">
         <v>18</v>
       </c>
@@ -11282,7 +11294,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A275" s="1" t="s">
         <v>18</v>
       </c>
@@ -11314,7 +11326,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A276" s="1" t="s">
         <v>45</v>
       </c>
@@ -11346,7 +11358,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A277" s="1" t="s">
         <v>18</v>
       </c>
@@ -11378,7 +11390,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A278" s="1" t="s">
         <v>18</v>
       </c>
@@ -11410,7 +11422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A279" s="1" t="s">
         <v>31</v>
       </c>
@@ -11442,7 +11454,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A280" s="1" t="s">
         <v>36</v>
       </c>
@@ -11474,7 +11486,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A281" s="1" t="s">
         <v>31</v>
       </c>
@@ -11506,7 +11518,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A282" s="1" t="s">
         <v>87</v>
       </c>
@@ -11538,7 +11550,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A283" s="1" t="s">
         <v>18</v>
       </c>
@@ -11570,7 +11582,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A284" s="1" t="s">
         <v>14</v>
       </c>
@@ -11602,7 +11614,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A285" s="1" t="s">
         <v>99</v>
       </c>
@@ -11634,7 +11646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A286" s="1" t="s">
         <v>140</v>
       </c>
@@ -11666,7 +11678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A287" s="1" t="s">
         <v>18</v>
       </c>
@@ -11698,7 +11710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A288" s="1" t="s">
         <v>450</v>
       </c>
@@ -11730,7 +11742,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A289" s="1" t="s">
         <v>14</v>
       </c>
@@ -11762,7 +11774,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A290" s="1" t="s">
         <v>18</v>
       </c>
@@ -11794,7 +11806,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A291" s="1" t="s">
         <v>41</v>
       </c>
@@ -11826,7 +11838,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A292" s="1" t="s">
         <v>18</v>
       </c>
@@ -11858,7 +11870,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A293" s="1" t="s">
         <v>113</v>
       </c>
@@ -11890,7 +11902,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A294" s="1" t="s">
         <v>74</v>
       </c>
@@ -11922,7 +11934,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A295" s="1" t="s">
         <v>18</v>
       </c>
@@ -11954,7 +11966,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A296" s="1" t="s">
         <v>14</v>
       </c>
@@ -11986,7 +11998,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A297" s="1" t="s">
         <v>14</v>
       </c>
@@ -12018,7 +12030,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A298" s="1" t="s">
         <v>14</v>
       </c>
@@ -12050,7 +12062,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A299" s="1" t="s">
         <v>41</v>
       </c>
@@ -12082,7 +12094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A300" s="1" t="s">
         <v>113</v>
       </c>
@@ -12114,7 +12126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A301" s="1" t="s">
         <v>18</v>
       </c>
@@ -12146,7 +12158,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A302" s="1" t="s">
         <v>36</v>
       </c>
@@ -12178,7 +12190,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A303" s="1" t="s">
         <v>31</v>
       </c>
@@ -12210,7 +12222,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A304" s="1" t="s">
         <v>193</v>
       </c>
@@ -12242,7 +12254,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A305" s="1" t="s">
         <v>56</v>
       </c>
@@ -12274,7 +12286,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A306" s="1" t="s">
         <v>209</v>
       </c>
@@ -12306,7 +12318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A307" s="1" t="s">
         <v>18</v>
       </c>
@@ -12338,7 +12350,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A308" s="1" t="s">
         <v>31</v>
       </c>
@@ -12370,7 +12382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A309" s="1" t="s">
         <v>475</v>
       </c>
@@ -12402,7 +12414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A310" s="1" t="s">
         <v>18</v>
       </c>
@@ -12434,7 +12446,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A311" s="1" t="s">
         <v>86</v>
       </c>
@@ -12466,7 +12478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A312" s="1" t="s">
         <v>18</v>
       </c>
@@ -12498,7 +12510,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A313" s="1" t="s">
         <v>209</v>
       </c>
@@ -12530,7 +12542,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A314" s="1" t="s">
         <v>482</v>
       </c>
@@ -12562,7 +12574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A315" s="1" t="s">
         <v>18</v>
       </c>
@@ -12594,7 +12606,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A316" s="1" t="s">
         <v>18</v>
       </c>
@@ -12626,7 +12638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A317" s="1" t="s">
         <v>18</v>
       </c>
@@ -12658,7 +12670,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A318" s="1" t="s">
         <v>18</v>
       </c>
@@ -12690,7 +12702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A319" s="1" t="s">
         <v>482</v>
       </c>
@@ -12722,7 +12734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A320" s="1" t="s">
         <v>14</v>
       </c>
@@ -12754,7 +12766,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A321" s="1" t="s">
         <v>450</v>
       </c>
@@ -12786,7 +12798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A322" s="1" t="s">
         <v>450</v>
       </c>
@@ -12818,7 +12830,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A323" s="1" t="s">
         <v>492</v>
       </c>
@@ -12850,7 +12862,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A324" s="1" t="s">
         <v>18</v>
       </c>
@@ -12882,7 +12894,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A325" s="1" t="s">
         <v>18</v>
       </c>
@@ -12914,7 +12926,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A326" s="1" t="s">
         <v>18</v>
       </c>
@@ -12946,7 +12958,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A327" s="1" t="s">
         <v>319</v>
       </c>
@@ -12978,7 +12990,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A328" s="1" t="s">
         <v>45</v>
       </c>
@@ -13010,7 +13022,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A329" s="1" t="s">
         <v>45</v>
       </c>
@@ -13042,7 +13054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A330" s="1" t="s">
         <v>41</v>
       </c>
@@ -13074,7 +13086,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A331" s="1" t="s">
         <v>45</v>
       </c>
@@ -13106,7 +13118,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A332" s="1" t="s">
         <v>41</v>
       </c>
@@ -13138,7 +13150,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A333" s="1" t="s">
         <v>41</v>
       </c>
@@ -13170,7 +13182,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A334" s="1" t="s">
         <v>393</v>
       </c>
@@ -13202,7 +13214,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A335" s="1" t="s">
         <v>501</v>
       </c>
@@ -13234,7 +13246,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A336" s="1" t="s">
         <v>63</v>
       </c>
@@ -13266,7 +13278,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A337" s="1" t="s">
         <v>31</v>
       </c>
@@ -13298,7 +13310,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -13330,7 +13342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A339" s="1" t="s">
         <v>45</v>
       </c>
@@ -13362,7 +13374,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A340" s="1" t="s">
         <v>18</v>
       </c>
@@ -13394,7 +13406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A341" s="1" t="s">
         <v>450</v>
       </c>
@@ -13426,7 +13438,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A342" s="1" t="s">
         <v>450</v>
       </c>
@@ -13458,7 +13470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A343" s="1" t="s">
         <v>355</v>
       </c>
@@ -13490,7 +13502,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A344" s="1" t="s">
         <v>507</v>
       </c>
@@ -13522,7 +13534,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A345" s="1" t="s">
         <v>135</v>
       </c>
@@ -13554,7 +13566,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A346" s="1" t="s">
         <v>18</v>
       </c>
@@ -13586,7 +13598,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A347" s="1" t="s">
         <v>31</v>
       </c>
@@ -13618,7 +13630,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A348" s="1" t="s">
         <v>41</v>
       </c>
@@ -13650,7 +13662,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A349" s="1" t="s">
         <v>41</v>
       </c>
@@ -13682,7 +13694,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A350" s="1" t="s">
         <v>78</v>
       </c>
@@ -13714,7 +13726,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A351" s="1" t="s">
         <v>99</v>
       </c>
@@ -13746,7 +13758,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A352" s="1" t="s">
         <v>519</v>
       </c>
@@ -13778,7 +13790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A353" s="1" t="s">
         <v>175</v>
       </c>
@@ -13810,7 +13822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A354" s="1" t="s">
         <v>45</v>
       </c>
@@ -13842,7 +13854,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A355" s="1" t="s">
         <v>45</v>
       </c>
@@ -13874,7 +13886,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A356" s="1" t="s">
         <v>113</v>
       </c>
@@ -13906,7 +13918,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A357" s="1" t="s">
         <v>515</v>
       </c>
@@ -13935,6 +13947,70 @@
         <v>485</v>
       </c>
       <c r="J357" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A358" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H358" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H359" s="1">
+        <v>260110</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J359" s="1" t="s">
         <v>167</v>
       </c>
     </row>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56594BD1-6C18-49C9-A697-9BC46CC202A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D7290-0E31-447B-A468-59A5932D7914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="558">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2124,6 +2124,146 @@
   </si>
   <si>
     <t>린, 밀리아, 멜키르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야마카시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이크, 루디, 오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2루2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 루디, 카론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2플2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 바네사, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 아멜리아, 플라튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 카구라, 라이언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라2카1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 실베스타, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2카1아1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 엘리시아, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트1오2겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1오2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2연2연1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜1콜2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜1콜2실1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2바2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 스파이크, 루디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘2트2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2브1카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2겔1에1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 브브, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브2트1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2오2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 밀리아, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2키2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2오1겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2겔1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2카1브2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 라이언, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라1카1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2카1브2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹2크1크2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2511,13 +2651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="D359" sqref="D359"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="M405" sqref="M405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
@@ -2526,7 +2666,7 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2698,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -2590,7 +2730,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -2622,7 +2762,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -2654,7 +2794,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2686,7 +2826,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2718,7 +2858,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,7 +2890,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2782,7 +2922,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2814,7 +2954,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2846,7 +2986,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2878,7 +3018,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2910,7 +3050,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +3082,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -2974,7 +3114,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3006,7 +3146,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3038,7 +3178,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -3070,7 +3210,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3102,7 +3242,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3134,7 +3274,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
@@ -3166,7 +3306,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3198,7 +3338,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -3230,7 +3370,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -3262,7 +3402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -3294,7 +3434,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3326,7 +3466,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -3358,7 +3498,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3390,7 +3530,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -3422,7 +3562,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3454,7 +3594,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -3486,7 +3626,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -3518,7 +3658,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>308</v>
       </c>
@@ -3550,7 +3690,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -3582,7 +3722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -3614,7 +3754,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -3646,7 +3786,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,7 +3818,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3710,7 +3850,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -3742,7 +3882,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -3774,7 +3914,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3806,7 +3946,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -3838,7 +3978,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -3870,7 +4010,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -3902,7 +4042,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -3934,7 +4074,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>323</v>
       </c>
@@ -3966,7 +4106,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -3998,7 +4138,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4030,7 +4170,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -4062,7 +4202,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -4094,7 +4234,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -4126,7 +4266,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>327</v>
       </c>
@@ -4158,7 +4298,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>294</v>
       </c>
@@ -4190,7 +4330,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4222,7 +4362,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -4254,7 +4394,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -4286,7 +4426,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -4318,7 +4458,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>294</v>
       </c>
@@ -4350,7 +4490,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
@@ -4382,7 +4522,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -4414,7 +4554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>338</v>
       </c>
@@ -4446,7 +4586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>342</v>
       </c>
@@ -4478,7 +4618,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
@@ -4510,7 +4650,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>319</v>
       </c>
@@ -4542,7 +4682,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>216</v>
       </c>
@@ -4574,7 +4714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
@@ -4606,7 +4746,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>350</v>
       </c>
@@ -4638,7 +4778,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
@@ -4670,7 +4810,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>355</v>
       </c>
@@ -4702,7 +4842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>356</v>
       </c>
@@ -4734,7 +4874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
@@ -4766,7 +4906,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>363</v>
       </c>
@@ -4798,7 +4938,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>319</v>
       </c>
@@ -4830,7 +4970,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -4862,7 +5002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>369</v>
       </c>
@@ -4894,7 +5034,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>371</v>
       </c>
@@ -4926,7 +5066,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>110</v>
       </c>
@@ -4958,7 +5098,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>376</v>
       </c>
@@ -4990,7 +5130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -5022,7 +5162,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>382</v>
       </c>
@@ -5054,7 +5194,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>383</v>
       </c>
@@ -5086,7 +5226,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>386</v>
       </c>
@@ -5118,7 +5258,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>319</v>
       </c>
@@ -5150,7 +5290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>390</v>
       </c>
@@ -5182,7 +5322,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -5214,7 +5354,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -5246,7 +5386,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -5278,7 +5418,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
@@ -5310,7 +5450,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>27</v>
       </c>
@@ -5342,7 +5482,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -5374,7 +5514,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -5406,7 +5546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>41</v>
       </c>
@@ -5438,7 +5578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>45</v>
       </c>
@@ -5470,7 +5610,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -5502,7 +5642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>36</v>
       </c>
@@ -5534,7 +5674,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>56</v>
       </c>
@@ -5566,7 +5706,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -5598,7 +5738,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>60</v>
       </c>
@@ -5630,7 +5770,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>63</v>
       </c>
@@ -5662,7 +5802,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>67</v>
       </c>
@@ -5694,7 +5834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
@@ -5726,7 +5866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
@@ -5758,7 +5898,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>74</v>
       </c>
@@ -5790,7 +5930,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -5822,7 +5962,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>78</v>
       </c>
@@ -5854,7 +5994,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
@@ -5886,7 +6026,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
@@ -5918,7 +6058,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
@@ -5950,7 +6090,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>86</v>
       </c>
@@ -5982,7 +6122,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -6014,7 +6154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>63</v>
       </c>
@@ -6046,7 +6186,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>94</v>
       </c>
@@ -6078,7 +6218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>74</v>
       </c>
@@ -6110,7 +6250,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>31</v>
       </c>
@@ -6142,7 +6282,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>100</v>
       </c>
@@ -6174,7 +6314,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>18</v>
       </c>
@@ -6206,7 +6346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>106</v>
       </c>
@@ -6238,7 +6378,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>31</v>
       </c>
@@ -6270,7 +6410,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>18</v>
       </c>
@@ -6302,7 +6442,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>110</v>
       </c>
@@ -6334,7 +6474,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>113</v>
       </c>
@@ -6366,7 +6506,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>31</v>
       </c>
@@ -6398,7 +6538,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
@@ -6430,7 +6570,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -6462,7 +6602,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>18</v>
       </c>
@@ -6494,7 +6634,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>31</v>
       </c>
@@ -6526,7 +6666,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -6558,7 +6698,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>31</v>
       </c>
@@ -6590,7 +6730,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -6622,7 +6762,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -6654,7 +6794,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
@@ -6686,7 +6826,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>41</v>
       </c>
@@ -6718,7 +6858,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
@@ -6750,7 +6890,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -6782,7 +6922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>77</v>
       </c>
@@ -6814,7 +6954,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
@@ -6846,7 +6986,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>100</v>
       </c>
@@ -6878,7 +7018,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -6910,7 +7050,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -6942,7 +7082,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>94</v>
       </c>
@@ -6974,7 +7114,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -7006,7 +7146,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>14</v>
       </c>
@@ -7038,7 +7178,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>14</v>
       </c>
@@ -7070,7 +7210,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>106</v>
       </c>
@@ -7102,7 +7242,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
@@ -7134,7 +7274,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -7166,7 +7306,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>113</v>
       </c>
@@ -7198,7 +7338,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>168</v>
       </c>
@@ -7230,7 +7370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
@@ -7262,7 +7402,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>172</v>
       </c>
@@ -7294,7 +7434,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>174</v>
       </c>
@@ -7326,7 +7466,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
@@ -7358,7 +7498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>18</v>
       </c>
@@ -7390,7 +7530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
@@ -7422,7 +7562,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>178</v>
       </c>
@@ -7454,7 +7594,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>86</v>
       </c>
@@ -7486,7 +7626,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
@@ -7518,7 +7658,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>183</v>
       </c>
@@ -7550,7 +7690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>188</v>
       </c>
@@ -7582,7 +7722,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>191</v>
       </c>
@@ -7614,7 +7754,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>193</v>
       </c>
@@ -7646,7 +7786,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>110</v>
       </c>
@@ -7678,7 +7818,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>199</v>
       </c>
@@ -7710,7 +7850,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>14</v>
       </c>
@@ -7742,7 +7882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>14</v>
       </c>
@@ -7774,7 +7914,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>188</v>
       </c>
@@ -7806,7 +7946,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -7838,7 +7978,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>206</v>
       </c>
@@ -7870,7 +8010,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>209</v>
       </c>
@@ -7902,7 +8042,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>14</v>
       </c>
@@ -7934,7 +8074,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -7966,7 +8106,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>209</v>
       </c>
@@ -7998,7 +8138,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>18</v>
       </c>
@@ -8030,7 +8170,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
@@ -8062,7 +8202,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>183</v>
       </c>
@@ -8094,7 +8234,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>36</v>
       </c>
@@ -8126,7 +8266,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>224</v>
       </c>
@@ -8158,7 +8298,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>18</v>
       </c>
@@ -8190,7 +8330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>31</v>
       </c>
@@ -8222,7 +8362,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>113</v>
       </c>
@@ -8254,7 +8394,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>18</v>
       </c>
@@ -8286,7 +8426,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
@@ -8318,7 +8458,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>18</v>
       </c>
@@ -8350,7 +8490,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>41</v>
       </c>
@@ -8382,7 +8522,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
@@ -8414,7 +8554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
@@ -8446,7 +8586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>113</v>
       </c>
@@ -8478,7 +8618,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>153</v>
       </c>
@@ -8510,7 +8650,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>244</v>
       </c>
@@ -8542,7 +8682,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>246</v>
       </c>
@@ -8574,7 +8714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>18</v>
       </c>
@@ -8606,7 +8746,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>18</v>
       </c>
@@ -8638,7 +8778,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>31</v>
       </c>
@@ -8670,7 +8810,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>18</v>
       </c>
@@ -8702,7 +8842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>18</v>
       </c>
@@ -8734,7 +8874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>31</v>
       </c>
@@ -8766,7 +8906,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>113</v>
       </c>
@@ -8798,7 +8938,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>31</v>
       </c>
@@ -8830,7 +8970,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>259</v>
       </c>
@@ -8862,7 +9002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>18</v>
       </c>
@@ -8894,7 +9034,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>31</v>
       </c>
@@ -8926,7 +9066,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>18</v>
       </c>
@@ -8958,7 +9098,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -8990,7 +9130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
@@ -9022,7 +9162,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>18</v>
       </c>
@@ -9054,7 +9194,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>238</v>
       </c>
@@ -9086,7 +9226,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>18</v>
       </c>
@@ -9118,7 +9258,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>18</v>
       </c>
@@ -9150,7 +9290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>41</v>
       </c>
@@ -9182,7 +9322,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>173</v>
       </c>
@@ -9214,7 +9354,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>173</v>
       </c>
@@ -9246,7 +9386,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>173</v>
       </c>
@@ -9278,7 +9418,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>31</v>
       </c>
@@ -9310,7 +9450,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>74</v>
       </c>
@@ -9342,7 +9482,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>18</v>
       </c>
@@ -9374,7 +9514,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>31</v>
       </c>
@@ -9406,7 +9546,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>86</v>
       </c>
@@ -9438,7 +9578,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>18</v>
       </c>
@@ -9470,7 +9610,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>31</v>
       </c>
@@ -9502,7 +9642,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>18</v>
       </c>
@@ -9534,7 +9674,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>14</v>
       </c>
@@ -9566,7 +9706,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>67</v>
       </c>
@@ -9598,7 +9738,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9630,7 +9770,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>14</v>
       </c>
@@ -9662,7 +9802,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>31</v>
       </c>
@@ -9694,7 +9834,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>18</v>
       </c>
@@ -9726,7 +9866,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>18</v>
       </c>
@@ -9758,7 +9898,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>18</v>
       </c>
@@ -9790,7 +9930,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>399</v>
       </c>
@@ -9822,7 +9962,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>18</v>
       </c>
@@ -9854,7 +9994,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>14</v>
       </c>
@@ -9886,7 +10026,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>18</v>
       </c>
@@ -9918,7 +10058,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>403</v>
       </c>
@@ -9950,7 +10090,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>41</v>
       </c>
@@ -9982,7 +10122,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>63</v>
       </c>
@@ -10014,7 +10154,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>31</v>
       </c>
@@ -10046,7 +10186,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>173</v>
       </c>
@@ -10078,7 +10218,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>106</v>
       </c>
@@ -10110,7 +10250,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>77</v>
       </c>
@@ -10142,7 +10282,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>140</v>
       </c>
@@ -10174,7 +10314,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>140</v>
       </c>
@@ -10206,7 +10346,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>18</v>
       </c>
@@ -10238,7 +10378,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>18</v>
       </c>
@@ -10270,7 +10410,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>14</v>
       </c>
@@ -10302,7 +10442,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>14</v>
       </c>
@@ -10334,7 +10474,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>31</v>
       </c>
@@ -10366,7 +10506,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>41</v>
       </c>
@@ -10398,7 +10538,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>18</v>
       </c>
@@ -10430,7 +10570,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>86</v>
       </c>
@@ -10462,7 +10602,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>18</v>
       </c>
@@ -10494,7 +10634,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>428</v>
       </c>
@@ -10526,7 +10666,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>41</v>
       </c>
@@ -10558,7 +10698,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>14</v>
       </c>
@@ -10590,7 +10730,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>18</v>
       </c>
@@ -10622,7 +10762,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>18</v>
       </c>
@@ -10654,7 +10794,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>63</v>
       </c>
@@ -10686,7 +10826,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>14</v>
       </c>
@@ -10718,7 +10858,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>440</v>
       </c>
@@ -10750,7 +10890,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>36</v>
       </c>
@@ -10782,7 +10922,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>18</v>
       </c>
@@ -10814,7 +10954,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>323</v>
       </c>
@@ -10846,7 +10986,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>77</v>
       </c>
@@ -10878,7 +11018,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>18</v>
       </c>
@@ -10910,7 +11050,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>14</v>
       </c>
@@ -10942,7 +11082,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>31</v>
       </c>
@@ -10974,7 +11114,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>45</v>
       </c>
@@ -11006,7 +11146,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>18</v>
       </c>
@@ -11038,7 +11178,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>63</v>
       </c>
@@ -11070,7 +11210,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>447</v>
       </c>
@@ -11102,7 +11242,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>159</v>
       </c>
@@ -11134,7 +11274,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>450</v>
       </c>
@@ -11166,7 +11306,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>31</v>
       </c>
@@ -11198,7 +11338,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>18</v>
       </c>
@@ -11230,7 +11370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>63</v>
       </c>
@@ -11262,7 +11402,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>18</v>
       </c>
@@ -11294,7 +11434,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>18</v>
       </c>
@@ -11326,7 +11466,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>45</v>
       </c>
@@ -11358,7 +11498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>18</v>
       </c>
@@ -11390,7 +11530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>18</v>
       </c>
@@ -11422,7 +11562,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>31</v>
       </c>
@@ -11454,7 +11594,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>36</v>
       </c>
@@ -11486,7 +11626,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>31</v>
       </c>
@@ -11518,7 +11658,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>87</v>
       </c>
@@ -11550,7 +11690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>18</v>
       </c>
@@ -11582,7 +11722,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>14</v>
       </c>
@@ -11614,7 +11754,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>99</v>
       </c>
@@ -11646,7 +11786,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>140</v>
       </c>
@@ -11678,7 +11818,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>18</v>
       </c>
@@ -11710,7 +11850,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>450</v>
       </c>
@@ -11742,7 +11882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>14</v>
       </c>
@@ -11774,7 +11914,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>18</v>
       </c>
@@ -11806,7 +11946,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>41</v>
       </c>
@@ -11838,7 +11978,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>18</v>
       </c>
@@ -11870,7 +12010,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>113</v>
       </c>
@@ -11902,7 +12042,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>74</v>
       </c>
@@ -11934,7 +12074,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>18</v>
       </c>
@@ -11966,7 +12106,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>14</v>
       </c>
@@ -11998,7 +12138,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>14</v>
       </c>
@@ -12030,7 +12170,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>14</v>
       </c>
@@ -12062,7 +12202,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>41</v>
       </c>
@@ -12094,7 +12234,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>113</v>
       </c>
@@ -12126,7 +12266,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>18</v>
       </c>
@@ -12158,7 +12298,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>36</v>
       </c>
@@ -12190,7 +12330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>31</v>
       </c>
@@ -12222,7 +12362,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>193</v>
       </c>
@@ -12254,7 +12394,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>56</v>
       </c>
@@ -12286,7 +12426,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>209</v>
       </c>
@@ -12318,7 +12458,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>18</v>
       </c>
@@ -12350,7 +12490,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>31</v>
       </c>
@@ -12382,7 +12522,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>475</v>
       </c>
@@ -12414,7 +12554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>18</v>
       </c>
@@ -12446,7 +12586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>86</v>
       </c>
@@ -12478,7 +12618,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>18</v>
       </c>
@@ -12510,7 +12650,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>209</v>
       </c>
@@ -12542,7 +12682,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>482</v>
       </c>
@@ -12574,7 +12714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>18</v>
       </c>
@@ -12606,7 +12746,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>18</v>
       </c>
@@ -12638,7 +12778,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>18</v>
       </c>
@@ -12670,7 +12810,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>18</v>
       </c>
@@ -12702,7 +12842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>482</v>
       </c>
@@ -12734,7 +12874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>14</v>
       </c>
@@ -12766,7 +12906,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>450</v>
       </c>
@@ -12798,7 +12938,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>450</v>
       </c>
@@ -12830,7 +12970,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>492</v>
       </c>
@@ -12862,7 +13002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>18</v>
       </c>
@@ -12894,7 +13034,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>18</v>
       </c>
@@ -12926,7 +13066,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>18</v>
       </c>
@@ -12958,7 +13098,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>319</v>
       </c>
@@ -12990,7 +13130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>45</v>
       </c>
@@ -13022,7 +13162,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>45</v>
       </c>
@@ -13054,7 +13194,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>41</v>
       </c>
@@ -13086,7 +13226,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>45</v>
       </c>
@@ -13118,7 +13258,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>41</v>
       </c>
@@ -13150,7 +13290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>41</v>
       </c>
@@ -13182,7 +13322,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>393</v>
       </c>
@@ -13214,7 +13354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>501</v>
       </c>
@@ -13246,7 +13386,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>63</v>
       </c>
@@ -13278,7 +13418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>31</v>
       </c>
@@ -13310,7 +13450,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -13342,7 +13482,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>45</v>
       </c>
@@ -13374,7 +13514,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>18</v>
       </c>
@@ -13406,7 +13546,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>450</v>
       </c>
@@ -13438,7 +13578,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>450</v>
       </c>
@@ -13470,7 +13610,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>355</v>
       </c>
@@ -13502,7 +13642,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>507</v>
       </c>
@@ -13534,7 +13674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>135</v>
       </c>
@@ -13566,7 +13706,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>18</v>
       </c>
@@ -13598,7 +13738,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>31</v>
       </c>
@@ -13630,7 +13770,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>41</v>
       </c>
@@ -13662,7 +13802,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>41</v>
       </c>
@@ -13694,7 +13834,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>78</v>
       </c>
@@ -13726,7 +13866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>99</v>
       </c>
@@ -13758,7 +13898,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>519</v>
       </c>
@@ -13790,7 +13930,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>175</v>
       </c>
@@ -13822,7 +13962,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>45</v>
       </c>
@@ -13854,7 +13994,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>45</v>
       </c>
@@ -13886,7 +14026,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>113</v>
       </c>
@@ -13918,7 +14058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>515</v>
       </c>
@@ -13950,7 +14090,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>135</v>
       </c>
@@ -13982,7 +14122,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>31</v>
       </c>
@@ -14011,6 +14151,1574 @@
         <v>485</v>
       </c>
       <c r="J359" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H360" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H361" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H362" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H363" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H364" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H365" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H366" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H367" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H368" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H369" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H370" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H371" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H372" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H373" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H374" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H375" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H376" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H377" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H378" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H379" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H380" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H381" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H382" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H383" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H384" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H385" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H386" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H387" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H389" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H390" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H391" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H392" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H393" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H394" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H395" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H396" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H397" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H398" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H399" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H400" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H401" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H402" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H403" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H404" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H405" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H406" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H407" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H408" s="1">
+        <v>260112</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J408" s="1" t="s">
         <v>167</v>
       </c>
     </row>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D7290-0E31-447B-A468-59A5932D7914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E821C658-F2F1-450B-AEE3-B08963ACEF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
+    <workbookView xWindow="5010" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="559">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2264,6 +2264,10 @@
   </si>
   <si>
     <t>녹2크1크2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lenoir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2651,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J408"/>
+  <dimension ref="A1:J410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="M405" sqref="M405"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="J410" sqref="J410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15722,6 +15726,22 @@
         <v>167</v>
       </c>
     </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H409" s="1">
+        <v>260114</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H410" s="1">
+        <v>260124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E821C658-F2F1-450B-AEE3-B08963ACEF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541F7B92-378D-48E2-B416-07D28EF774AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
+    <workbookView xWindow="18705" yWindow="75" windowWidth="28800" windowHeight="15435" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4841" uniqueCount="688">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2267,7 +2267,522 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lenoir</t>
+    <t>카일, 브브, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔리두스, 오공, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2브1파2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 엘리시아, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1프2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 파이, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 엘리시아, 오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2오2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 멜키르, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜2밀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태오, 브브, 클라한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클2브1태2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카1브2카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔리두스, 에이스, 아일린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루디, 로지, 크리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2로1크2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2아2에1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리나, 플라튼, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리1플2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 브브, 카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2카2브1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2오2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키리엘, 초선, 실베스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2실2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 멜키르, 린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린2멜2밀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2트2겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 루디, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 연희, 바네사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2바1연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2팔1팔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카1카2브2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 바네사, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1연2밀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1리1플2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2멜2멜1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린2멜1밀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 프레이야, 초선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2오2프2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 스파이크, 겔리두스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2트2트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 키리엘, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 엘리스, 루디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2연2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 팔라누스, 아라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2팔1팔2</t>
+  </si>
+  <si>
+    <t>아2팔1팔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1밀2연2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2콜2트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2플2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바네사, 키리엘, 밀리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2겔1엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1아2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연2바1연1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 스파이크, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스2콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1키2밀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카구라, 브브, 카일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 로지, 겔리두스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 키리엘, 멜키르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀2멜2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2엘1스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 키리엘, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1크2아1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 스파이크,아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1트1스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초선, 실베스타, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2키2실2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바네사, 밀리아, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 로지, 아라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2겔2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 초선, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2엘1오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2카2브2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지, 크리스, 녹스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2아2파2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1겔1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 스파이크, 에이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2에2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 엘리스, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2오2아1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스, 아라곤, 팔라누스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 루디, 팔라누스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 린, 멜키르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 엘리스, 아라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 엘리시아, 겔리두스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1겔2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 콜트, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2파1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 플라튼, 아라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔1팔2아2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바1프2밀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2에1오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 루디, 스파이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2루2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라튼, 프레이야, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 키리엘, 프레이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연2프2키1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초선, 프레이야, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2프2브2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔1스2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2엘2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브2파1파2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 플라튼, 크리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크2오2크1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔1아1팔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크1녹1녹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연희, 프레이야, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프2연2연1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1아2브2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2오2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2엘1겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2프2프1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1트2겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 사라, 아라곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실2콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 스파이크, 에이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2에2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리1플2리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 아라곤, 사라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2팔2팔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2프2에1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라한, 플라튼, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클2콜2클1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 아라곤, 로지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2655,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J410"/>
+  <dimension ref="A1:J556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="J410" sqref="J410"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="H556" sqref="H556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15727,19 +16242,4001 @@
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H409" s="1">
-        <v>260114</v>
+        <v>260131</v>
       </c>
       <c r="I409" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H410" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H411" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H412" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H413" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H414" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H415" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H416" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H417" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H418" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="J409" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H410" s="1">
-        <v>260124</v>
+      <c r="B419" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H419" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H420" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H421" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H422" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H423" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H424" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H425" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H426" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H427" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H428" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H429" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H430" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H431" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H432" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H433" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H434" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H435" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H436" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H437" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H438" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H439" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H440" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H441" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H442" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H443" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H444" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H445" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H446" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H447" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H448" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H449" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H450" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H451" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H452" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H453" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H454" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H455" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H456" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H457" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H458" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H459" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H460" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H461" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H462" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H463" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H464" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H465" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H466" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H467" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H468" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H469" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H470" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H471" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H472" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H473" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F474" t="s">
+        <v>604</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H474" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A491" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A493" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A494" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A495" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A497" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A508" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A509" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541F7B92-378D-48E2-B416-07D28EF774AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27249B0-ACB2-4AF7-81BD-FBD731185892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="75" windowWidth="28800" windowHeight="15435" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4841" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="688">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3172,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
   <dimension ref="A1:J556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="H556" sqref="H556"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="N552" sqref="N552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18375,6 +18375,15 @@
       <c r="G475" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H475" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
@@ -18398,6 +18407,15 @@
       <c r="G476" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H476" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
@@ -18421,6 +18439,15 @@
       <c r="G477" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H477" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
@@ -18444,6 +18471,15 @@
       <c r="G478" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H478" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
@@ -18467,6 +18503,15 @@
       <c r="G479" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H479" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
@@ -18490,8 +18535,17 @@
       <c r="G480" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H480" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>403</v>
       </c>
@@ -18513,8 +18567,17 @@
       <c r="G481" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H481" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>18</v>
       </c>
@@ -18536,8 +18599,17 @@
       <c r="G482" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H482" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>31</v>
       </c>
@@ -18559,8 +18631,17 @@
       <c r="G483" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H483" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>175</v>
       </c>
@@ -18582,8 +18663,17 @@
       <c r="G484" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H484" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>113</v>
       </c>
@@ -18605,8 +18695,17 @@
       <c r="G485" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H485" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>519</v>
       </c>
@@ -18628,8 +18727,17 @@
       <c r="G486" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H486" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>134</v>
       </c>
@@ -18651,8 +18759,17 @@
       <c r="G487" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H487" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>31</v>
       </c>
@@ -18674,8 +18791,17 @@
       <c r="G488" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H488" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>519</v>
       </c>
@@ -18697,8 +18823,17 @@
       <c r="G489" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H489" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>18</v>
       </c>
@@ -18720,8 +18855,17 @@
       <c r="G490" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H490" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>173</v>
       </c>
@@ -18743,8 +18887,17 @@
       <c r="G491" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H491" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>450</v>
       </c>
@@ -18766,8 +18919,17 @@
       <c r="G492" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H492" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>519</v>
       </c>
@@ -18789,8 +18951,17 @@
       <c r="G493" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H493" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>41</v>
       </c>
@@ -18812,8 +18983,17 @@
       <c r="G494" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H494" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>31</v>
       </c>
@@ -18835,8 +19015,17 @@
       <c r="G495" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H495" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>519</v>
       </c>
@@ -18858,8 +19047,17 @@
       <c r="G496" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H496" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>31</v>
       </c>
@@ -18881,8 +19079,17 @@
       <c r="G497" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H497" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>648</v>
       </c>
@@ -18904,8 +19111,17 @@
       <c r="G498" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H498" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>106</v>
       </c>
@@ -18927,8 +19143,17 @@
       <c r="G499" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H499" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>18</v>
       </c>
@@ -18950,8 +19175,17 @@
       <c r="G500" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H500" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>31</v>
       </c>
@@ -18973,8 +19207,17 @@
       <c r="G501" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H501" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>18</v>
       </c>
@@ -18996,8 +19239,17 @@
       <c r="G502" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H502" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>31</v>
       </c>
@@ -19019,8 +19271,17 @@
       <c r="G503" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H503" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>173</v>
       </c>
@@ -19042,8 +19303,17 @@
       <c r="G504" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H504" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>63</v>
       </c>
@@ -19065,8 +19335,17 @@
       <c r="G505" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H505" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>45</v>
       </c>
@@ -19088,8 +19367,17 @@
       <c r="G506" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H506" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>56</v>
       </c>
@@ -19111,8 +19399,17 @@
       <c r="G507" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H507" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>18</v>
       </c>
@@ -19134,8 +19431,17 @@
       <c r="G508" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H508" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>63</v>
       </c>
@@ -19157,8 +19463,17 @@
       <c r="G509" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H509" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>45</v>
       </c>
@@ -19180,8 +19495,17 @@
       <c r="G510" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H510" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>41</v>
       </c>
@@ -19203,8 +19527,17 @@
       <c r="G511" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H511" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>656</v>
       </c>
@@ -19226,8 +19559,17 @@
       <c r="G512" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H512" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>41</v>
       </c>
@@ -19249,8 +19591,17 @@
       <c r="G513" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H513" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>63</v>
       </c>
@@ -19272,8 +19623,17 @@
       <c r="G514" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H514" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>63</v>
       </c>
@@ -19295,8 +19655,17 @@
       <c r="G515" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H515" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>31</v>
       </c>
@@ -19318,8 +19687,17 @@
       <c r="G516" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H516" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>519</v>
       </c>
@@ -19341,8 +19719,17 @@
       <c r="G517" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H517" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>63</v>
       </c>
@@ -19364,8 +19751,17 @@
       <c r="G518" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H518" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>178</v>
       </c>
@@ -19387,8 +19783,17 @@
       <c r="G519" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H519" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>63</v>
       </c>
@@ -19410,8 +19815,17 @@
       <c r="G520" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H520" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>63</v>
       </c>
@@ -19433,8 +19847,17 @@
       <c r="G521" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H521" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>650</v>
       </c>
@@ -19456,8 +19879,17 @@
       <c r="G522" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H522" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>63</v>
       </c>
@@ -19479,8 +19911,17 @@
       <c r="G523" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H523" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>31</v>
       </c>
@@ -19502,8 +19943,17 @@
       <c r="G524" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H524" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>63</v>
       </c>
@@ -19525,8 +19975,17 @@
       <c r="G525" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H525" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>45</v>
       </c>
@@ -19548,8 +20007,17 @@
       <c r="G526" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H526" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>31</v>
       </c>
@@ -19571,8 +20039,17 @@
       <c r="G527" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H527" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>519</v>
       </c>
@@ -19594,8 +20071,17 @@
       <c r="G528" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H528" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>519</v>
       </c>
@@ -19617,8 +20103,17 @@
       <c r="G529" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H529" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>31</v>
       </c>
@@ -19640,8 +20135,17 @@
       <c r="G530" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H530" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>519</v>
       </c>
@@ -19663,8 +20167,17 @@
       <c r="G531" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H531" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>45</v>
       </c>
@@ -19686,8 +20199,17 @@
       <c r="G532" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H532" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>18</v>
       </c>
@@ -19709,8 +20231,17 @@
       <c r="G533" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H533" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>519</v>
       </c>
@@ -19732,8 +20263,17 @@
       <c r="G534" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H534" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>18</v>
       </c>
@@ -19755,8 +20295,17 @@
       <c r="G535" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H535" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>14</v>
       </c>
@@ -19778,8 +20327,17 @@
       <c r="G536" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H536" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>14</v>
       </c>
@@ -19801,8 +20359,17 @@
       <c r="G537" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H537" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>168</v>
       </c>
@@ -19824,8 +20391,17 @@
       <c r="G538" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H538" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>106</v>
       </c>
@@ -19847,8 +20423,17 @@
       <c r="G539" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H539" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>14</v>
       </c>
@@ -19870,8 +20455,17 @@
       <c r="G540" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H540" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>14</v>
       </c>
@@ -19893,8 +20487,17 @@
       <c r="G541" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H541" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>676</v>
       </c>
@@ -19916,8 +20519,17 @@
       <c r="G542" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H542" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>173</v>
       </c>
@@ -19939,8 +20551,17 @@
       <c r="G543" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H543" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>209</v>
       </c>
@@ -19962,8 +20583,17 @@
       <c r="G544" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H544" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>14</v>
       </c>
@@ -19985,8 +20615,17 @@
       <c r="G545" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H545" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>173</v>
       </c>
@@ -20008,8 +20647,17 @@
       <c r="G546" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H546" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>36</v>
       </c>
@@ -20031,8 +20679,17 @@
       <c r="G547" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H547" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>516</v>
       </c>
@@ -20054,8 +20711,17 @@
       <c r="G548" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H548" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>682</v>
       </c>
@@ -20077,8 +20743,17 @@
       <c r="G549" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H549" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>682</v>
       </c>
@@ -20100,8 +20775,17 @@
       <c r="G550" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H550" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>121</v>
       </c>
@@ -20123,8 +20807,17 @@
       <c r="G551" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H551" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>173</v>
       </c>
@@ -20146,8 +20839,17 @@
       <c r="G552" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H552" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>14</v>
       </c>
@@ -20169,8 +20871,17 @@
       <c r="G553" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H553" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>140</v>
       </c>
@@ -20192,8 +20903,17 @@
       <c r="G554" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H554" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>106</v>
       </c>
@@ -20215,8 +20935,17 @@
       <c r="G555" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H555" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>78</v>
       </c>
@@ -20237,6 +20966,15 @@
       </c>
       <c r="G556" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="H556" s="1">
+        <v>260131</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27249B0-ACB2-4AF7-81BD-FBD731185892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EAD07-DA4B-4A17-9F30-8274984ED849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5446" uniqueCount="750">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2783,6 +2783,254 @@
   </si>
   <si>
     <t>팔라누스, 아라곤, 로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 카구라, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2여1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2프2엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2프2엘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브브, 여포, 카일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브2여1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초선, 프레이야, 키리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2프2키2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브브, 여포, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1브2아2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1여2브1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루드, 겔리두스, 에이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2트2에2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 겔리두스, 루디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2겔2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1여2브2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 풍연, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에1겔2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1여2파1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 브브, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아1여1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챈슬러, 아라곤, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2엘1챈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 루디, 겔리두스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2오2겔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1아2여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아멜리아, 여포, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1브1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 카구라, 여포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2여1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 브브, 카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2여1브1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 여포, 카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1카2여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1브2여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1아1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라누스, 아라곤, 플라튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티니핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 카일, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2스2트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1카2카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카구라, 콜트, 여포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2팔1팔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카구라, 여포, 카일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여2여1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루2팔2팔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 콜트, 카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 카일, 카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1카1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1여2카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여2여1카1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2브2여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2여2여1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카일, 여포, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1카2브1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2프2키1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2카2여1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야, 초선, 연희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트2겔2겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리아, 바네사, 연희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플2팔1아2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3170,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J556"/>
+  <dimension ref="A1:J605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="N552" sqref="N552"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="M600" sqref="M600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20977,6 +21225,1574 @@
         <v>271</v>
       </c>
     </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H557" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H558" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H559" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H560" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H561" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H562" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H563" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H564" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H565" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H566" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H567" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H568" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H569" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H570" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H571" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H572" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H573" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H574" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H575" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H576" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H577" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H578" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H579" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H580" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H581" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H582" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H583" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H584" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H585" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H586" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H588" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H589" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H590" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H591" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H592" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H593" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H594" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A595" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H595" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H596" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H597" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H598" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H599" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H600" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A601" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H601" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H602" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A603" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H603" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H604" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H605" s="1">
+        <v>260207</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/길드전_답지.xlsx
+++ b/길드전_답지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkong\Desktop\길드전_후처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EAD07-DA4B-4A17-9F30-8274984ED849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B0EB0-D706-4FDF-90F4-66E559D4B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C002F75F-3448-4E28-B0B8-52ACF21C0AF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5446" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5671" uniqueCount="789">
   <si>
     <t>방어팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3031,6 +3031,162 @@
   </si>
   <si>
     <t>플2팔1아2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카2브1여1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 파이, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1파2콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 브브, 풍연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공, 겔리두스, 라드그리드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라드그리드, 스파이크, 겔리두스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2라1겔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 콜트, 파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 브브, 카일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1콜2여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2카1파2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라드그리드, 엘리시아, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘1라1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라드그리드, 스파이크, 엘리시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스2라1엘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 콜트, 아멜리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아2여1여2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 브브, 콜트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여2여1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라드그리드, 스파이크, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라1트2스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라드그리드, 챈슬러, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챈2트2라1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1카1카2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 카일, 풍연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 브브, 태오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여1태1브1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오2스2오1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라드그리드, 겔리두스, 트루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2라1트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초2키2키1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구2콜1콜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여2브2여1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라드그리드, 팔라누스, 엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라1팔1팔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포, 아멜리아, 브브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겔2오2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자칼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3418,17 +3574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDF8374-E96A-4F68-8AEA-DBAA9B089C3E}">
-  <dimension ref="A1:J605"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="M600" sqref="M600"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="T604" sqref="T604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -22793,6 +22949,806 @@
         <v>271</v>
       </c>
     </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H606" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A607" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H607" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A608" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H608" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A609" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H609" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A610" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H610" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A611" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H611" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A612" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H612" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A613" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H613" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A614" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H614" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A615" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H615" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A616" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H616" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J616" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A617" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H617" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A618" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H618" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A619" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H619" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A620" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H620" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A621" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H621" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A622" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H622" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J622" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A623" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H623" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H624" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J624" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A625" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H625" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J625" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H626" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J626" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A627" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H627" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J627" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A628" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H628" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A629" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H629" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J629" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A630" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H630" s="1">
+        <v>260221</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J630" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
